--- a/새 폴더/새 폴더_result.xlsx
+++ b/새 폴더/새 폴더_result.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8개 생성</t>
+          <t>16개 생성</t>
         </is>
       </c>
     </row>

--- a/새 폴더/새 폴더_result.xlsx
+++ b/새 폴더/새 폴더_result.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,22 +507,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>버버리 벨트 캔버스 토트백</t>
+          <t>버버리 레더 벨트 캔버스 토트백</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>버버리 벨트 캔버스 토트백 공용 BURBERRY 정품 명품가방</t>
+          <t>버버리 레더 벨트 캔버스 토트백 - 공용 명품 가방 BURBERRY</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>버버리의 시그니처 벨트 디테일이 돋보이는 캔버스 토트백. 남녀공용으로 사용 가능하며, 실용적인 수납공간과 세련된 디자인이 특징입니다. 일상부터 비즈니스까지 완벽한 스타일링이 가능한 명품 토트백입니다.</t>
+          <t>버버리 시그니처 디자인의 레더 벨트 캔버스 토트백. 남녀공용으로 사용 가능한 실용적인 명품 가방으로, 고급 캔버스와 레더의 조화가 돋보이는 세련된 디자인. 데일리부터 비즈니스까지 완벽한 스타일링.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>버버리토트백, BURBERRY가방, 벨트토트백, 캔버스토트백, 공용가방, 명품토트백, 버버리정품, 남녀공용가방, 브랜드토트백, 럭셔리가방</t>
+          <t>버버리 토트백, BURBERRY 가방, 레더 캔버스 토트백, 명품 토트백, 공용 가방, 버버리 벨트백, 캔버스 토트백, 명품 가방, 디자이너 가방, 버버리 정품</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -554,22 +554,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>버버리 체크 패턴 캡</t>
+          <t>버버리 체크 패턴 베이스볼 캡</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>버버리 체크 패턴 캡 | BURBERRY 공용 모자 | 정품 액세서리</t>
+          <t>버버리 체크 패턴 베이스볼 캡 - 공용 모자 BURBERRY 정품</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>버버리 시그니처 체크 패턴이 돋보이는 프리미엄 캡. 남녀공용으로 착용 가능한 클래식한 디자인과 뛰어난 품질을 자랑합니다. 버버리 정품으로 스타일리시한 룩을 완성해보세요.</t>
+          <t>클래식한 버버리 체크 패턴이 돋보이는 베이스볼 캡. 남녀공용으로 착용 가능한 프리미엄 모자로 일상과 스포츠 활동에 완벽한 스타일링을 완성하세요. 버버리 정품 보장.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>버버리 모자, BURBERRY 캡, 체크 패턴 모자, 공용 캡, 버버리 체크, 프리미엄 모자, 남녀공용 모자, 버버리 액세서리</t>
+          <t>버버리 모자, BURBERRY 캡, 체크 패턴 모자, 베이스볼 캡, 공용 모자, 남녀공용 모자, 브랜드 모자, 정품 모자</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -578,288 +578,6 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>8장 생성</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>명품 패션</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>벨트</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CELINE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>셀린느 골드 버클 레더 벨트</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>셀린느 골드 버클 레더 벨트 | CELINE 정품 남녀공용 명품 액세서리</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>셀린느 시그니처 골드 버클 레더 벨트로 세련된 스타일을 완성하세요. 프리미엄 레더 소재와 고급스러운 골드 버클이 어떤 룩에도 완벽하게 어울리는 남녀공용 명품 벨트입니다.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>셀린느 벨트, CELINE 벨트, 골드 버클 벨트, 명품 벨트, 레더 벨트, 공용 벨트, 셀린느 액세서리, 명품 액세서리, 프리미엄 벨트, CELINE 정품</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>성공</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>8장 생성</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>명품 패션</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>스카프</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>HERMES</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>에르메스 말 패턴 실크 트윌리</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>에르메스 말 패턴 실크 트윌리 공용 스카프 - HERMES 정품 액세서리</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>에르메스 시그니처 말 패턴이 돋보이는 고급 실크 트윌리. 남녀공용으로 착용 가능한 프리미엄 스카프로 목, 가방, 헤어 액세서리 등 다양한 스타일링이 가능합니다.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>에르메스 트윌리, HERMES 스카프, 실크 트윌리, 말 패턴 스카프, 에르메스 액세서리, 공용 스카프, 럭셔리 스카프, 트윌리 스카프</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>성공</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8장 생성</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>명품 패션</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>시계</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ROLEX</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>롤렉스 골드 옥타곤 시계</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>롤렉스 골드 옥타곤 여성시계 | ROLEX 프리미엄 주얼리 워치</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>롤렉스 골드 옥타곤 여성시계로 우아함을 완성하세요. 독특한 8각형 디자인과 고급 골드 소재가 만나 세련된 스타일을 연출합니다. 정품 ROLEX 브랜드 보증과 뛰어난 품질을 자랑하는 프리미엄 액세서리입니다.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>롤렉스 여성시계, ROLEX 골드시계, 옥타곤시계, 여성 명품시계, 롤렉스 액세서리, 골드 주얼리시계, 프리미엄 시계, 명품 여성시계</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>성공</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>4장 생성</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>명품 패션</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>신발</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GUCCI</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>구찌 GG 캔버스 웹 스트라이프 스니커즈</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>구찌 GG 캔버스 웹 스트라이프 여성 스니커즈 - 럭셔리 캐주얼 신발</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>구찌의 시그니처 GG 캔버스와 웹 스트라이프가 어우러진 프리미엄 여성 스니커즈. 이탈리아 장인정신으로 완성된 고급스러운 디자인과 편안한 착용감을 동시에 만족시키는 럭셔리 캐주얼 슈즈입니다.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>구찌 스니커즈, 구찌 여성신발, GG 캔버스, 웹 스트라이프, 럭셔리 스니커즈, 명품 운동화, 구찌 신발, 여성 스니커즈, 프리미엄 신발, 이탈리아 명품</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>성공</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8장 생성</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>명품 패션</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>의류</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CHANEL</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>샤넬 데님 디테일 니트 가디건</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>샤넬 데님 디테일 니트 가디건 여성 아우터 CHANEL 정품</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>샤넬의 세련된 데님 디테일 니트 가디건으로 럭셔리한 스타일을 완성하세요. 부드러운 니트 소재와 독특한 데님 디테일이 조화를 이룬 프리미엄 여성 아우터입니다. 캐주얼과 포멀 모두 완벽한 연출이 가능합니다.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>샤넬 가디건, CHANEL 니트, 데님 디테일 가디건, 여성 아우터, 럭셔리 가디건, 브랜드 니트, 샤넬 정품, 프리미엄 가디건, 여성 니트</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>성공</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>8장 생성</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>명품 패션</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>쥬얼리</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>VALENTINO</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>발렌티노 체리 모티프 골드 목걸이</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>발렌티노 체리 모티프 골드 목걸이 | VALENTINO 여성 주얼리</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>발렌티노의 시그니처 체리 모티프가 돋보이는 골드 목걸이. 세련된 디자인과 고급스러운 마감으로 일상부터 특별한 날까지 완벽한 스타일링을 연출하세요. 정품 보장 발렌티노 여성 액세서리.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>발렌티노 목걸이, VALENTINO 주얼리, 체리 모티프 목걸이, 골드 목걸이, 여성 액세서리, 럭셔리 주얼리, 발렌티노 정품, 이탈리아 명품</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>성공</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>8장 생성</t>
         </is>
